--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BI-Echart\bi-charts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -143,6 +138,9 @@
     <t>是否可代替系统筛选器待沟通</t>
   </si>
   <si>
+    <t>tempo官方回复无法更改</t>
+  </si>
+  <si>
     <t>3.参数注解图</t>
   </si>
   <si>
@@ -227,7 +225,7 @@
     <t>数据组织目前存在问题</t>
   </si>
   <si>
-    <t>2.年度专场进度</t>
+    <t>2.年度转场进度</t>
   </si>
   <si>
     <t>类里程碑</t>
@@ -246,21 +244,47 @@
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>图片地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>195</t>
     </r>
     <r>
@@ -268,7 +292,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,10 +307,16 @@
       </rPr>
       <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>195</t>
     </r>
     <r>
@@ -295,7 +324,92 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,131 +423,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>195</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>969</t>
     </r>
     <r>
@@ -446,10 +435,38 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9090</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -457,7 +474,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,10 +489,16 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -484,7 +506,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,10 +521,16 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -511,7 +538,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,10 +553,16 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -538,7 +570,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,10 +585,16 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -565,7 +602,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -581,10 +617,16 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -592,7 +634,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -608,57 +649,36 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9090</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -685,21 +705,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,7 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,8 +874,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -770,23 +1112,277 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -801,45 +1397,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1126,825 +1772,832 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.725" customWidth="1"/>
+    <col min="4" max="4" width="7.26666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.09166666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.725" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" ht="21" spans="2:7">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="13">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="11">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="13">
         <v>0.3</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <v>6</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="11">
         <v>3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="13">
         <v>0.5</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="15">
         <v>5</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11">
         <v>4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="10" t="s">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="10"/>
+      <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="13">
         <v>0.3</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="G24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="7">
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="11">
         <v>6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11">
         <v>2</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="7">
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="13">
         <v>0.5</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="10"/>
+      <c r="C29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="15">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="10"/>
+      <c r="C33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="11">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="10"/>
+      <c r="C38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="11">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11">
+        <v>3</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="10"/>
+      <c r="C41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="11">
         <v>6</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E44" s="11">
         <v>3</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F44" s="13">
         <v>0.5</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="10"/>
+      <c r="C45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
-        <v>4</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E47" s="16">
+        <v>5</v>
+      </c>
+      <c r="F47" s="13">
         <v>0.5</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="10" t="s">
+      <c r="G47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>3</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="10"/>
+      <c r="C50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="11">
-        <v>6</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D50" s="15">
         <v>3</v>
       </c>
-      <c r="F31" s="9">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11">
         <v>1</v>
       </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="E52" s="16">
+        <v>5</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="10"/>
+      <c r="C53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="15">
         <v>1</v>
       </c>
-      <c r="E32" s="7">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="7">
-        <v>4</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>2</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11">
-        <v>3</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7">
-        <v>8</v>
-      </c>
-      <c r="E40" s="7">
-        <v>3</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="7">
-        <v>6</v>
-      </c>
-      <c r="E44" s="7">
-        <v>3</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12">
-        <v>5</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>3</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>3</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="11">
-        <v>3</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12">
-        <v>5</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="11">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="C54" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="14">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" ht="22.5" spans="3:4">
+      <c r="C54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="19">
         <v>31</v>
       </c>
     </row>
@@ -1952,218 +2605,232 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="84.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1951</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1956</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1956</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1958</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1964</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1964</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1966</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1969</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1990</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2002</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2007</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2012</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2013</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>92</v>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -656,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -712,6 +712,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -743,31 +766,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,46 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -882,6 +882,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -906,25 +930,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,12 +1020,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -997,48 +1039,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,50 +1138,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1210,6 +1166,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1218,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,133 +1230,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1781,11 +1781,11 @@
   <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -715,6 +715,13 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4.项目-里程碑</t>
+  </si>
+  <si>
+    <t>图片大小可能需要更改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -943,14 +950,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,7 +1269,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1278,15 +1285,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21.5" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="14.5" thickTop="1">
       <c r="B3" s="5" t="s">
@@ -1422,10 +1429,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="10">
@@ -1433,7 +1440,7 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>102</v>
       </c>
       <c r="H10" s="9"/>
@@ -1681,13 +1688,13 @@
       <c r="G25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="10">
@@ -1715,11 +1722,15 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="F27" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">
@@ -1737,10 +1748,10 @@
       <c r="F28" s="11">
         <v>1</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1995,10 +2006,10 @@
       <c r="F44" s="11">
         <v>1</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2018,7 +2029,7 @@
       <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H45" s="9"/>

--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -722,6 +722,16 @@
   </si>
   <si>
     <t>图片大小可能需要更改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1.概述-发展历程</t>
+  </si>
+  <si>
+    <t>#3.经营-KPI完成情况（流水+进度）</t>
+  </si>
+  <si>
+    <t>进度图入TP，水流图需额外js暂无法测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1279,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1279,8 +1289,8 @@
     <col min="4" max="4" width="7.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.08984375" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" customWidth="1"/>
+    <col min="8" max="8" width="35.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1342,8 +1352,8 @@
       <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
+      <c r="F5" s="12">
+        <v>0.3</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1365,7 +1375,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
@@ -1523,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1620,11 +1632,15 @@
       <c r="E21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="9"/>
@@ -2113,8 +2129,8 @@
       <c r="E50" s="10">
         <v>3</v>
       </c>
-      <c r="F50" s="10">
-        <v>0</v>
+      <c r="F50" s="12">
+        <v>0.3</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>

--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BI-Echart\bi-charts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -44,6 +39,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>组件名称</t>
+  </si>
+  <si>
     <t>一、概述</t>
   </si>
   <si>
@@ -53,18 +51,30 @@
     <t>产品谱系图旋转，可点击</t>
   </si>
   <si>
+    <t>更改js样式调整结构+图</t>
+  </si>
+  <si>
     <t>2.发展历程</t>
   </si>
   <si>
     <t>数据解析，类里程碑</t>
   </si>
   <si>
+    <t>服务器上传图片</t>
+  </si>
+  <si>
+    <t>#1.概述-发展历程</t>
+  </si>
+  <si>
     <t>3.移动光点</t>
   </si>
   <si>
     <t>移动光点</t>
   </si>
   <si>
+    <t>#光点移动</t>
+  </si>
+  <si>
     <t>4.右上角旋转小球</t>
   </si>
   <si>
@@ -80,6 +90,34 @@
     <t>系统自带功能</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.立体饼图</t>
+    </r>
+  </si>
+  <si>
+    <t>年度经营规模%显示</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
     <t>小计</t>
   </si>
   <si>
@@ -92,6 +130,9 @@
     <t>仪表盘</t>
   </si>
   <si>
+    <t>#2.总览-仪表盘</t>
+  </si>
+  <si>
     <t>2.客户需求</t>
   </si>
   <si>
@@ -122,12 +163,21 @@
     <t>1.轮播tab</t>
   </si>
   <si>
+    <t>更改js样式调整结构</t>
+  </si>
+  <si>
     <t>2.关键指标完成情况</t>
   </si>
   <si>
     <t>水流图仪表盘+进度条</t>
   </si>
   <si>
+    <t>进度图入TP，水流图需额外js暂无法测试</t>
+  </si>
+  <si>
+    <t>#3.经营-KPI完成情况（流水+进度）</t>
+  </si>
+  <si>
     <t>四、项目</t>
   </si>
   <si>
@@ -143,7 +193,16 @@
     <t>是否可代替系统筛选器待沟通</t>
   </si>
   <si>
-    <t>tempo官方回复无法更改</t>
+    <t>tempo官方回复无法更改，取消</t>
+  </si>
+  <si>
+    <t>3.参数注解图</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>QYL改图片或者css旋转</t>
   </si>
   <si>
     <t>4.里程碑</t>
@@ -152,12 +211,24 @@
     <t>数据解析</t>
   </si>
   <si>
+    <t>图片大小可能需要更改</t>
+  </si>
+  <si>
+    <t>#4.项目-里程碑</t>
+  </si>
+  <si>
     <t>5.装配集成</t>
   </si>
   <si>
     <t>仪表盘，中心动图，周围仪表盘</t>
   </si>
   <si>
+    <t>中心动图已经添加panel-demo3.html</t>
+  </si>
+  <si>
+    <t>#点状仪表盘</t>
+  </si>
+  <si>
     <t>6.筛选图片调用</t>
   </si>
   <si>
@@ -176,12 +247,21 @@
     <t>2.金字塔</t>
   </si>
   <si>
+    <t>反馈解析有问题需要现场调整</t>
+  </si>
+  <si>
+    <t>#5.人力-金字塔-职级人数</t>
+  </si>
+  <si>
     <t>六、器材</t>
   </si>
   <si>
     <t>1.KPI仪表</t>
   </si>
   <si>
+    <t>#6.器材-仪表盘</t>
+  </si>
+  <si>
     <t>2.边框右上逐渐展示</t>
   </si>
   <si>
@@ -206,12 +286,21 @@
     <t>1.人员需求小人图</t>
   </si>
   <si>
+    <t>小人图</t>
+  </si>
+  <si>
+    <t>#9.生产-人员需求</t>
+  </si>
+  <si>
     <t>2.仪表盘</t>
   </si>
   <si>
     <t>6处仪表盘应用</t>
   </si>
   <si>
+    <t>？现有样式应该可以覆盖</t>
+  </si>
+  <si>
     <t>九、生产</t>
   </si>
   <si>
@@ -230,6 +319,9 @@
     <t>类里程碑</t>
   </si>
   <si>
+    <t>查看数据库，确认数据结构</t>
+  </si>
+  <si>
     <t>3.双向柱图</t>
   </si>
   <si>
@@ -648,98 +740,19 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-  </si>
-  <si>
-    <t>中心动图已经添加panel-demo3.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#点状仪表盘</t>
-  </si>
-  <si>
-    <t>#9.生产-人员需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小人图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#6.器材-仪表盘</t>
-  </si>
-  <si>
-    <t>#光点移动</t>
-  </si>
-  <si>
-    <t>#5.人力-金字塔-职级人数</t>
-  </si>
-  <si>
-    <t>#2.总览-仪表盘</t>
-  </si>
-  <si>
-    <t>？现有样式应该可以覆盖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.立体饼图</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度经营规模%显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.参数注解图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#4.项目-里程碑</t>
-  </si>
-  <si>
-    <t>图片大小可能需要更改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1.概述-发展历程</t>
-  </si>
-  <si>
-    <t>#3.经营-KPI完成情况（流水+进度）</t>
-  </si>
-  <si>
-    <t>进度图入TP，水流图需额外js暂无法测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +788,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -783,28 +810,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,7 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,12 +987,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -887,13 +1217,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,11 +1502,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -942,13 +1529,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -960,27 +1565,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1267,970 +1907,989 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.725" customWidth="1"/>
+    <col min="4" max="4" width="7.26666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.09166666666667" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" customWidth="1"/>
-    <col min="8" max="8" width="35.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="32.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.1833333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21.5" thickBot="1">
-      <c r="B2" s="24" t="s">
+    <row r="2" ht="21" spans="2:8">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.5" thickTop="1">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:8">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>91</v>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
         <v>4</v>
       </c>
       <c r="F5" s="12">
         <v>0.3</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>107</v>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>96</v>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
         <v>2</v>
       </c>
       <c r="F9" s="12">
         <v>0.5</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="9"/>
+      <c r="G10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="9"/>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="B11" s="10"/>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>98</v>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
         <v>5</v>
       </c>
       <c r="F15" s="12">
         <v>0.5</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
         <v>3</v>
       </c>
       <c r="F17" s="12">
         <v>0.5</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="10"/>
+      <c r="C18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="10"/>
+      <c r="C22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
+        <v>3</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="11">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="15">
+        <v>6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>4</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="19">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="10"/>
+      <c r="C34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="9"/>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15">
+        <v>3</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="10"/>
+      <c r="C39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="15">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="10"/>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15">
+        <v>3</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="15">
+        <v>6</v>
+      </c>
+      <c r="E45" s="15">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="10"/>
+      <c r="C46" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="19">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20">
         <v>5</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="10">
-        <v>4</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="14">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>3</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>3</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="10">
-        <v>6</v>
-      </c>
-      <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>3</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="10">
-        <v>6</v>
-      </c>
-      <c r="E28" s="10">
-        <v>3</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="22" t="s">
+      <c r="F48" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>4</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="14">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>3</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="9"/>
-      <c r="C34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="10">
-        <v>4</v>
-      </c>
-      <c r="E36" s="10">
-        <v>3</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>2</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>2</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="9"/>
-      <c r="C39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="14">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="10">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10">
-        <v>3</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="9"/>
-      <c r="C42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10">
-        <v>3</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="C49" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="10">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10">
-        <v>3</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="9"/>
-      <c r="C46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="14">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="15">
-        <v>5</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
         <v>3</v>
       </c>
       <c r="F49" s="12">
         <v>0.5</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
+      <c r="G49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="B50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
         <v>3</v>
       </c>
       <c r="F50" s="12">
         <v>0.3</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="9"/>
-      <c r="C51" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="14">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="10"/>
+      <c r="C51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="19">
         <v>3</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
         <v>5</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="9"/>
-      <c r="C54" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="14">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="2:11" ht="23">
-      <c r="C55" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="18">
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="10"/>
+      <c r="C54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="22.5" spans="3:6">
+      <c r="C55" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="29">
         <v>32</v>
+      </c>
+      <c r="F55" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="84.81640625" customWidth="1"/>
+    <col min="2" max="2" width="84.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2238,10 +2897,10 @@
         <v>1951</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2249,10 +2908,10 @@
         <v>1956</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2260,10 +2919,10 @@
         <v>1956</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2271,10 +2930,10 @@
         <v>1958</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2282,10 +2941,10 @@
         <v>1964</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2293,10 +2952,10 @@
         <v>1964</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2304,10 +2963,10 @@
         <v>1966</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2315,10 +2974,10 @@
         <v>1969</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2326,10 +2985,10 @@
         <v>1990</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2337,10 +2996,10 @@
         <v>2002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2348,10 +3007,10 @@
         <v>2007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2359,10 +3018,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2370,10 +3029,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2381,10 +3040,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2392,41 +3051,42 @@
         <v>2019</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BI-Echart\bi-charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,14 +750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,151 +809,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,7 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,194 +846,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1217,251 +892,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,146 +914,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1907,950 +1296,949 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="33.725" customWidth="1"/>
-    <col min="4" max="4" width="7.26666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.09166666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="35.1833333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" customWidth="1"/>
+    <col min="8" max="8" width="35.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="2:8">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="21">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:8">
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
         <v>3</v>
       </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>0.5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="17" t="s">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="10"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>5</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
         <v>5</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.5</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="10"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>5</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>3</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>3</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="10"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>3</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22">
         <v>3</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>0.3</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>6</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
         <v>3</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>6</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>3</v>
       </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22">
         <v>4</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>0.5</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="10"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>6</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>2</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>3</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:11">
+      <c r="B33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14">
         <v>3</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="10"/>
-      <c r="C34" s="18" t="s">
+    <row r="34" spans="2:11">
+      <c r="B34" s="9"/>
+      <c r="C34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>2</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="7" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="14" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>4</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>3</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14" t="s">
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="2:11">
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="9"/>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
         <v>2</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="10" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
         <v>2</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="10"/>
-      <c r="C39" s="18" t="s">
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="9"/>
+      <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>3</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="7" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="14" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>8</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>3</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="15">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="18" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="9"/>
+      <c r="C42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="19">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="7" t="s">
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="14" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14">
         <v>2</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>3</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="21" t="s">
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>6</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>3</v>
       </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="21" t="s">
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="10"/>
-      <c r="C46" s="18" t="s">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="9"/>
+      <c r="C46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>2</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="7" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="20">
-        <v>1</v>
-      </c>
-      <c r="E48" s="20">
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19">
         <v>5</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>0.5</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="H48" s="25"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
         <v>3</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>0.5</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
         <v>3</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>0.3</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="10"/>
-      <c r="C51" s="18" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="9"/>
+      <c r="C51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>3</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="7" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="10" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11">
-        <v>1</v>
-      </c>
-      <c r="E53" s="20">
+      <c r="C53" s="9"/>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19">
         <v>5</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>0</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="10"/>
-      <c r="C54" s="18" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="9"/>
+      <c r="C54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="19">
-        <v>1</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" ht="22.5" spans="3:6">
-      <c r="C55" s="28" t="s">
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" ht="23">
+      <c r="C55" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>32</v>
       </c>
       <c r="F55" s="4">
@@ -2861,24 +2249,23 @@
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="84.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="84.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3058,35 +2445,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:1">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:1">
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BI-Echart\bi-charts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -120,7 +115,7 @@
     <t>年度经营规模%显示</t>
   </si>
   <si>
-    <t>新增</t>
+    <t>新增，样式比较丑是否调整？</t>
   </si>
   <si>
     <t>小计</t>
@@ -144,6 +139,9 @@
     <t>动态飞机+信息</t>
   </si>
   <si>
+    <t>删选器解析打出飞机</t>
+  </si>
+  <si>
     <t>3.外场集群分布</t>
   </si>
   <si>
@@ -168,7 +166,10 @@
     <t>1.轮播tab</t>
   </si>
   <si>
-    <t>更改js样式调整结构</t>
+    <t>需要更改为新版样式</t>
+  </si>
+  <si>
+    <t>hhh/demo.html</t>
   </si>
   <si>
     <t>2.关键指标完成情况</t>
@@ -750,8 +751,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,13 +801,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -809,13 +809,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,7 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,8 +984,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -892,13 +1216,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +1480,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,7 +1516,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,7 +1528,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -980,10 +1552,10 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -995,21 +1567,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1296,949 +1909,954 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.725" customWidth="1"/>
+    <col min="4" max="4" width="7.26666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.09166666666667" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" customWidth="1"/>
-    <col min="8" max="8" width="35.1796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="32.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.1833333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21">
-      <c r="B2" s="32" t="s">
+    <row r="2" ht="21" spans="2:8">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:8">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>0.3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>0.5</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="9"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
         <v>5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>0.5</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>0.5</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="9"/>
+      <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="9"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>5</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10">
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="10"/>
+      <c r="C22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>3</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15">
+        <v>6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
         <v>4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F29" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="19">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
         <v>3</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="17" t="s">
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="10"/>
+      <c r="C34" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D34" s="19">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15">
         <v>3</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="10"/>
+      <c r="C39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="19">
         <v>3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="15">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="10"/>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15">
+        <v>3</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="15">
+        <v>6</v>
+      </c>
+      <c r="E45" s="15">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="10"/>
+      <c r="C46" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="19">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20">
+        <v>5</v>
+      </c>
+      <c r="F48" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="10"/>
+      <c r="C51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="19">
+        <v>3</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>5</v>
+      </c>
+      <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22">
-        <v>3</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="10">
-        <v>6</v>
-      </c>
-      <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
-        <v>3</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="14">
-        <v>6</v>
-      </c>
-      <c r="E28" s="14">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22">
-        <v>4</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="17" t="s">
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="10"/>
+      <c r="C54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="18">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
-        <v>3</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="14">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14">
-        <v>3</v>
-      </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="9"/>
-      <c r="C34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="18">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="14">
-        <v>4</v>
-      </c>
-      <c r="E36" s="14">
-        <v>3</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>2</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="9"/>
-      <c r="C39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="18">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="14">
-        <v>8</v>
-      </c>
-      <c r="E41" s="14">
-        <v>3</v>
-      </c>
-      <c r="F41" s="15">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="9"/>
-      <c r="C42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="18">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14">
-        <v>2</v>
-      </c>
-      <c r="E44" s="14">
-        <v>3</v>
-      </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="14">
-        <v>6</v>
-      </c>
-      <c r="E45" s="14">
-        <v>3</v>
-      </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="9"/>
-      <c r="C46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="18">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="19">
-        <v>5</v>
-      </c>
-      <c r="F48" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
-        <v>3</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
-        <v>3</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="9"/>
-      <c r="C51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="18">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="19">
-        <v>5</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="9"/>
-      <c r="C54" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="18">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="2:11" ht="23">
-      <c r="C55" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="28">
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="22.5" spans="3:6">
+      <c r="C55" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="30">
         <v>32</v>
       </c>
       <c r="F55" s="4">
@@ -2249,34 +2867,35 @@
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="84.81640625" customWidth="1"/>
+    <col min="2" max="2" width="84.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2284,10 +2903,10 @@
         <v>1951</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2295,10 +2914,10 @@
         <v>1956</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2306,10 +2925,10 @@
         <v>1956</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2317,10 +2936,10 @@
         <v>1958</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2328,10 +2947,10 @@
         <v>1964</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2339,10 +2958,10 @@
         <v>1964</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2350,10 +2969,10 @@
         <v>1966</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2361,10 +2980,10 @@
         <v>1969</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2372,10 +2991,10 @@
         <v>1990</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2383,10 +3002,10 @@
         <v>2002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2394,10 +3013,10 @@
         <v>2007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2405,10 +3024,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2416,10 +3035,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2427,10 +3046,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2438,41 +3057,42 @@
         <v>2019</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1010,6 +1010,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1076,6 +1082,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1136,37 +1148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,145 +1322,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1918,11 +1918,11 @@
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求列表.xlsx
+++ b/需求列表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BI-Echart\bi-charts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>动效需求列表</t>
   </si>
@@ -174,6 +169,9 @@
     <t>需要更改为新版样式</t>
   </si>
   <si>
+    <t>3.经营-tab轮播</t>
+  </si>
+  <si>
     <t>2.关键指标完成情况</t>
   </si>
   <si>
@@ -273,6 +271,9 @@
     <t>2.边框右上逐渐展示</t>
   </si>
   <si>
+    <t>gif？或JS</t>
+  </si>
+  <si>
     <t>3.计划完成情况右上</t>
   </si>
   <si>
@@ -327,6 +328,12 @@
     <t>类里程碑</t>
   </si>
   <si>
+    <t>效果已出演示tempo中缺少外挂文件无法查看效果</t>
+  </si>
+  <si>
+    <t>10.客服-飞机图</t>
+  </si>
+  <si>
     <t>3.双向柱图</t>
   </si>
   <si>
@@ -745,23 +752,19 @@
       </rPr>
       <t>1951年6月29日，空军工程部将所辖第五厂移交重工业部航空工业局，更名为国营112厂。</t>
     </r>
-  </si>
-  <si>
-    <t>效果已出演示tempo中缺少外挂文件无法查看效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.客服-飞机图</t>
-  </si>
-  <si>
-    <t>3.经营-tab轮播</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +807,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -812,7 +822,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,19 +848,125 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,7 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,18 +987,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -910,9 +1229,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,6 +1493,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,6 +1529,15 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -974,37 +1547,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1016,24 +1583,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1320,955 +1925,958 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.725" customWidth="1"/>
+    <col min="4" max="4" width="7.26666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.09166666666667" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" customWidth="1"/>
-    <col min="8" max="8" width="35.1796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="32.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.1833333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21">
-      <c r="B2" s="33" t="s">
+    <row r="2" ht="21" spans="2:8">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:8">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>0.3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="19">
         <v>0.5</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="9"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="22">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
         <v>5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>0.5</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>0.5</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="9"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="22">
         <v>5</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>118</v>
+      <c r="H20" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="14">
+      <c r="C21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15">
         <v>4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>3</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>47</v>
       </c>
+      <c r="H21" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="22">
         <v>3</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="C25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
         <v>3</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="19">
         <v>0.3</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="22"/>
+      <c r="G25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15">
+        <v>6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>4</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="10"/>
+      <c r="C30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="22">
         <v>6</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="E32" s="15">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="10"/>
+      <c r="C34" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15">
+        <v>3</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>2</v>
+      </c>
+      <c r="F37" s="18">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="G37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="10"/>
+      <c r="C39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="22">
         <v>3</v>
       </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="15">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="10"/>
+      <c r="C42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="22">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15">
+        <v>3</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="15">
         <v>6</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E45" s="15">
         <v>3</v>
       </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29" s="23">
-        <v>4</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="10"/>
+      <c r="C46" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="22">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="23">
+        <v>5</v>
+      </c>
+      <c r="F48" s="28">
         <v>0.5</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="17" t="s">
+      <c r="G48" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" ht="27" spans="2:11">
+      <c r="B49" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>3</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="10"/>
+      <c r="C51" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="18">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D51" s="22">
         <v>3</v>
       </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="14">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14">
-        <v>3</v>
-      </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="9"/>
-      <c r="C34" s="17" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="23">
+        <v>5</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="10"/>
+      <c r="C54" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="18">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="14">
-        <v>4</v>
-      </c>
-      <c r="E36" s="14">
-        <v>3</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>2</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="9"/>
-      <c r="C39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="18">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="14">
-        <v>8</v>
-      </c>
-      <c r="E41" s="14">
-        <v>3</v>
-      </c>
-      <c r="F41" s="15">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="9"/>
-      <c r="C42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="18">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14">
-        <v>2</v>
-      </c>
-      <c r="E44" s="14">
-        <v>3</v>
-      </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="14">
-        <v>6</v>
-      </c>
-      <c r="E45" s="14">
-        <v>3</v>
-      </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="9"/>
-      <c r="C46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="18">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="19">
-        <v>5</v>
-      </c>
-      <c r="F48" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" s="26"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="2:11" ht="28">
-      <c r="B49" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="14">
-        <v>3</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
-        <v>3</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="9"/>
-      <c r="C51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="18">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="19">
-        <v>5</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="9"/>
-      <c r="C54" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="18">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="2:11" ht="23">
-      <c r="C55" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="29">
+      <c r="D54" s="22">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="22.5" spans="3:6">
+      <c r="C55" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="31">
         <v>32</v>
       </c>
       <c r="F55" s="4">
@@ -2279,34 +2887,35 @@
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="84.81640625" customWidth="1"/>
+    <col min="2" max="2" width="84.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2314,10 +2923,10 @@
         <v>1951</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2325,10 +2934,10 @@
         <v>1956</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2336,10 +2945,10 @@
         <v>1956</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2347,10 +2956,10 @@
         <v>1958</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2358,10 +2967,10 @@
         <v>1964</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2369,10 +2978,10 @@
         <v>1964</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2380,10 +2989,10 @@
         <v>1966</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2391,10 +3000,10 @@
         <v>1969</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2402,10 +3011,10 @@
         <v>1990</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2413,10 +3022,10 @@
         <v>2002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2424,10 +3033,10 @@
         <v>2007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2435,10 +3044,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2446,10 +3055,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2457,10 +3066,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2468,41 +3077,42 @@
         <v>2019</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>